--- a/HS_GUI/stack_house.xlsx
+++ b/HS_GUI/stack_house.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\VS_Code\crawler\HS_GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FA2E321A-611B-4A08-A431-D9C9DBD4FEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA5CB11-15DC-4279-88EA-E0C61B253872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stack_house" sheetId="1" r:id="rId1"/>
     <sheet name="product_list" sheetId="3" r:id="rId2"/>
-    <sheet name="pd_lot_num" sheetId="4" r:id="rId3"/>
-    <sheet name="pd_total" sheetId="5" r:id="rId4"/>
+    <sheet name="醫院-醫生" sheetId="6" r:id="rId3"/>
+    <sheet name="pd_lot_num" sheetId="4" r:id="rId4"/>
+    <sheet name="pd_total" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stack_house!$A$1:$R$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>型號</t>
   </si>
@@ -55,13 +59,7 @@
     <t>種類</t>
   </si>
   <si>
-    <t>台北倉</t>
-  </si>
-  <si>
     <t>台中倉</t>
-  </si>
-  <si>
-    <t>台中倉</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -140,14 +138,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>骨板</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCP 3.5</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>10H</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -181,13 +171,45 @@
   </si>
   <si>
     <t>器械盒B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金額(成本價)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出廠日期</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>部位</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hook</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hook 左五洞</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨板-上肢</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期限</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
@@ -801,24 +823,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -841,7 +860,7 @@
     <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="42"/>
+    <cellStyle name="一般 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
@@ -1175,11 +1194,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1188,11 +1207,11 @@
     <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -1211,7 +1230,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -1226,92 +1245,111 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45034</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>4230601</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>4230601</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1321,75 +1359,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E05EEB5-B50D-467E-92EE-F72F9F82B6C9}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
         <v>18</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1399,11 +1383,125 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A2" sqref="A2:I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45040</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1415,9 +1513,9 @@
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1429,39 +1527,18 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
